--- a/地址相似度判断/test.xlsx
+++ b/地址相似度判断/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boli/workspace/addr/MGeoExample/地址相似度判断/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784C15C-5331-4B43-904E-7FA74FCF532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8734E3-FFE0-2141-AB73-476770F55493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>address_1</t>
   </si>
@@ -28,22 +28,22 @@
     <t>address_2</t>
   </si>
   <si>
-    <t>文化西路9号泰华国际大酒店</t>
-  </si>
-  <si>
-    <t>文化西路酒店</t>
-  </si>
-  <si>
-    <t>联胜路3号期望铭座</t>
-  </si>
-  <si>
-    <t>联胜路3号</t>
-  </si>
-  <si>
     <t>紫萱路363号人力社保局</t>
   </si>
   <si>
     <t>紫萱路363号市人社局</t>
+  </si>
+  <si>
+    <t>紫萱路市人社局</t>
+  </si>
+  <si>
+    <t>榆林市榆阳区康安路榆林市第二医院</t>
+  </si>
+  <si>
+    <t>栖霞区仙林街道文枢东路2号商住楼4楼</t>
+  </si>
+  <si>
+    <t>栖霞区文枢东路2号书店</t>
   </si>
 </sst>
 </file>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,18 +391,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -410,7 +410,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
